--- a/Anouk_data/figure_data.xlsx
+++ b/Anouk_data/figure_data.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Fig_X6" sheetId="5" r:id="rId6"/>
     <sheet name="Fig_X7" sheetId="6" r:id="rId7"/>
     <sheet name="Fig_X8" sheetId="7" r:id="rId8"/>
+    <sheet name="Fig_X09" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="29">
   <si>
     <r>
       <t>Ubc13</t>
@@ -117,12 +118,98 @@
   <si>
     <t>Unit_lineplot</t>
   </si>
+  <si>
+    <t>Annotation_1_label</t>
+  </si>
+  <si>
+    <t>Annotation_1_Symbol</t>
+  </si>
+  <si>
+    <t>Annotation_2_label</t>
+  </si>
+  <si>
+    <t>Annotation_2_Symbol</t>
+  </si>
+  <si>
+    <t>poly(I:C)</t>
+  </si>
+  <si>
+    <t>Unit_barplot_annotation</t>
+  </si>
+  <si>
+    <r>
+      <t>Ubc13</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>fl/fl</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>LysM</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>cre</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>-Ubc13</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>fl/fl</t>
+    </r>
+  </si>
+  <si>
+    <t>VBIT-4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Ifnb1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>(fold change)</t>
+    </r>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +247,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -182,7 +280,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -197,6 +295,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -482,7 +589,7 @@
   <dimension ref="A1:Y142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,14 +676,14 @@
         <v>4</v>
       </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -1083,14 +1190,14 @@
         <v>3</v>
       </c>
       <c r="F24" s="2"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
       <c r="Q24" s="5"/>
       <c r="R24" s="1"/>
       <c r="T24" s="1"/>
@@ -2587,7 +2694,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D9"/>
+      <selection activeCell="L59" sqref="L59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2937,7 +3044,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C7" sqref="B4:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3233,4 +3340,459 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1.80601177</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.58616597000000004</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.94462367000000003</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2.89436844</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2.2336932900000002</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3.3415488899999999</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.74165088999999995</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1.17838844</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.56527629000000001</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2.2843676099999999</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1.22612283</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2.2666779799999999</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1076.27945</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1017.50382</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="1">
+        <v>501.37260900000001</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="1">
+        <v>6920.6155099999996</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="E17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="1">
+        <v>9450.0330799999992</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="E18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="1">
+        <v>5155.1917800000001</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="E19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="1">
+        <v>185.71690699999999</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="E20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="1">
+        <v>233.99596700000001</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="E21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="1">
+        <v>94.869473400000004</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="E22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2827.69335</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="E23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1">
+        <v>3256.6090199999999</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="E24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2539.3277699999999</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="E25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="40" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+    </row>
+    <row r="41" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="J43" s="1"/>
+    </row>
+    <row r="44" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="J44" s="1"/>
+    </row>
+    <row r="45" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="J45" s="1"/>
+    </row>
+    <row r="46" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="J46" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Anouk_data/figure_data.xlsx
+++ b/Anouk_data/figure_data.xlsx
@@ -2,9 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\DII ALL4\Anouk\Paper Ubc13 LysM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="4" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="20" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="INFO" sheetId="11" r:id="rId1"/>
@@ -19,6 +24,18 @@
     <sheet name="GRAPH_pIC_VBIT_1" sheetId="9" r:id="rId10"/>
     <sheet name="GRAPH_pIC_VBIT_2" sheetId="13" r:id="rId11"/>
     <sheet name="GRAPH_pIC_1" sheetId="14" r:id="rId12"/>
+    <sheet name="GRAPH_pIC_anti-IFNAR_Ifnb1_1" sheetId="15" r:id="rId13"/>
+    <sheet name="GRAPH_pIC_anti-IFNAR_Ifnb1_2" sheetId="16" r:id="rId14"/>
+    <sheet name="GRAPH_pIC_anti-IFNAR_Mx1_1" sheetId="17" r:id="rId15"/>
+    <sheet name="GRAPH_pIC_anti-IFNAR_Mx1_2" sheetId="22" r:id="rId16"/>
+    <sheet name="GRAPH_pIC_anti-IFNAR_Isg15_1" sheetId="18" r:id="rId17"/>
+    <sheet name="GRAPH_pIC_anti-IFNAR_Isg15_2" sheetId="23" r:id="rId18"/>
+    <sheet name="GRAPH_pIC_anti-IFNAR_Ifit1_1" sheetId="19" r:id="rId19"/>
+    <sheet name="GRAPH_pIC_anti-IFNAR_Ifit1_2" sheetId="24" r:id="rId20"/>
+    <sheet name="GRAPH_pIC_anti-IFNAR_Cxcl10_1" sheetId="20" r:id="rId21"/>
+    <sheet name="GRAPH_pIC_anti-IFNAR_Cxcl10_2" sheetId="25" r:id="rId22"/>
+    <sheet name="GRAPH_pIC_anti-IFNAR_Stat1_1" sheetId="21" r:id="rId23"/>
+    <sheet name="GRAPH_pIC_anti-IFNAR_Stat1_2" sheetId="26" r:id="rId24"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="72">
   <si>
     <r>
       <t>Ubc13</t>
@@ -133,6 +150,7 @@
         <vertAlign val="superscript"/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>fl/fl</t>
     </r>
@@ -146,6 +164,7 @@
         <vertAlign val="superscript"/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>cre</t>
     </r>
@@ -153,6 +172,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>-Ubc13</t>
     </r>
@@ -161,30 +181,13 @@
         <vertAlign val="superscript"/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>fl/fl</t>
     </r>
   </si>
   <si>
     <t>VBIT-4</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Ifnb1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>(fold change)</t>
-    </r>
   </si>
   <si>
     <t>NO</t>
@@ -282,12 +285,90 @@
   <si>
     <t>GRAPH_pIC_VBIT_2</t>
   </si>
+  <si>
+    <t>\textit{Ifnb1} (fold change)</t>
+  </si>
+  <si>
+    <t>α-IFNAR</t>
+  </si>
+  <si>
+    <t>in vitro; Ifnb1 fold change; IFNAR blockade with anti-IFNAR; AE46</t>
+  </si>
+  <si>
+    <t>9h</t>
+  </si>
+  <si>
+    <t>\textit{Mx1} (fold change)</t>
+  </si>
+  <si>
+    <t>\textit{Isg15} (fold change)</t>
+  </si>
+  <si>
+    <t>\textit{Ifit1} (fold change)</t>
+  </si>
+  <si>
+    <t>\textit{Cxcl10} (fold change)</t>
+  </si>
+  <si>
+    <t>\textit{Stat1} (fold change)</t>
+  </si>
+  <si>
+    <t>GRAPH_pIC_anti-IFNAR_Mx1_1</t>
+  </si>
+  <si>
+    <t>GRAPH_pIC_anti-IFNAR_Ifnb1_1</t>
+  </si>
+  <si>
+    <t>GRAPH_pIC_anti-IFNAR_Isg15_1</t>
+  </si>
+  <si>
+    <t>GRAPH_pIC_anti-IFNAR_Ifit1_1</t>
+  </si>
+  <si>
+    <t>GRAPH_pIC_anti-IFNAR_Cxcl10_1</t>
+  </si>
+  <si>
+    <t>GRAPH_pIC_anti-IFNAR_Stat1_1</t>
+  </si>
+  <si>
+    <t>in vitro; Ifnb1 fold change; IFNAR blockade with anti-IFNAR; AE55</t>
+  </si>
+  <si>
+    <t>in vitro; Mx1 fold change; IFNAR blockade with anti-IFNAR; AE55</t>
+  </si>
+  <si>
+    <t>in vitro; Isg15 fold change; IFNAR blockade with anti-IFNAR; AE55</t>
+  </si>
+  <si>
+    <t>in vitro; Ifit1 fold change; IFNAR blockade with anti-IFNAR; AE55</t>
+  </si>
+  <si>
+    <t>in vitro; Cxcl10 fold change; IFNAR blockade with anti-IFNAR; AE55</t>
+  </si>
+  <si>
+    <t>in vitro; Stat1 fold change; IFNAR blockade with anti-IFNAR; AE55</t>
+  </si>
+  <si>
+    <t>in vitro; Mx1 fold change; IFNAR blockade with anti-IFNAR; AE46</t>
+  </si>
+  <si>
+    <t>in vitro; Isg15 fold change; IFNAR blockade with anti-IFNAR; AE46</t>
+  </si>
+  <si>
+    <t>in vitro; Ifit1 fold change; IFNAR blockade with anti-IFNAR; AE46</t>
+  </si>
+  <si>
+    <t>in vitro; Cxcl10 fold change; IFNAR blockade with anti-IFNAR; AE46</t>
+  </si>
+  <si>
+    <t>in vitro; Stat1 fold change; IFNAR blockade with anti-IFNAR; AE46</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,6 +387,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -326,21 +408,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <vertAlign val="superscript"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -376,7 +453,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -395,12 +472,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -687,117 +767,214 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
-    <col min="2" max="2" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>24</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
         <v>29</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
         <v>35</v>
       </c>
-      <c r="B9" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-    </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -808,10 +985,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="A1:XFD1048576"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -853,20 +1031,20 @@
       <c r="B2" s="1">
         <v>1.80601177</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>21</v>
+      <c r="C2" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -878,10 +1056,10 @@
       </c>
       <c r="C3" s="9"/>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -893,10 +1071,10 @@
       </c>
       <c r="C4" s="9"/>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -908,10 +1086,10 @@
       </c>
       <c r="C5" s="9"/>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -923,10 +1101,10 @@
       </c>
       <c r="C6" s="9"/>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -938,10 +1116,10 @@
       </c>
       <c r="C7" s="9"/>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -953,10 +1131,10 @@
       </c>
       <c r="C8" s="9"/>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -968,10 +1146,10 @@
       </c>
       <c r="C9" s="9"/>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -983,10 +1161,10 @@
       </c>
       <c r="C10" s="9"/>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -998,10 +1176,10 @@
       </c>
       <c r="C11" s="9"/>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1013,10 +1191,10 @@
       </c>
       <c r="C12" s="9"/>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1028,10 +1206,10 @@
       </c>
       <c r="C13" s="9"/>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1043,10 +1221,10 @@
       </c>
       <c r="C14" s="9"/>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1058,10 +1236,10 @@
       </c>
       <c r="C15" s="9"/>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1073,10 +1251,10 @@
       </c>
       <c r="C16" s="9"/>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1088,10 +1266,10 @@
       </c>
       <c r="C17" s="9"/>
       <c r="E17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1103,10 +1281,10 @@
       </c>
       <c r="C18" s="9"/>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1118,10 +1296,10 @@
       </c>
       <c r="C19" s="9"/>
       <c r="E19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1133,10 +1311,10 @@
       </c>
       <c r="C20" s="9"/>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1148,10 +1326,10 @@
       </c>
       <c r="C21" s="9"/>
       <c r="E21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1163,10 +1341,10 @@
       </c>
       <c r="C22" s="9"/>
       <c r="E22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1178,10 +1356,10 @@
       </c>
       <c r="C23" s="9"/>
       <c r="E23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1193,10 +1371,10 @@
       </c>
       <c r="C24" s="9"/>
       <c r="E24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1208,10 +1386,10 @@
       </c>
       <c r="C25" s="9"/>
       <c r="E25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1264,10 +1442,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1309,20 +1488,20 @@
       <c r="B2" s="1">
         <v>0.88321021189072757</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>21</v>
+      <c r="C2" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1334,10 +1513,10 @@
       </c>
       <c r="C3" s="9"/>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1349,10 +1528,10 @@
       </c>
       <c r="C4" s="9"/>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1364,10 +1543,10 @@
       </c>
       <c r="C5" s="9"/>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1379,10 +1558,10 @@
       </c>
       <c r="C6" s="9"/>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1394,10 +1573,10 @@
       </c>
       <c r="C7" s="9"/>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1409,10 +1588,10 @@
       </c>
       <c r="C8" s="9"/>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1424,10 +1603,10 @@
       </c>
       <c r="C9" s="9"/>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1439,10 +1618,10 @@
       </c>
       <c r="C10" s="9"/>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1454,10 +1633,10 @@
       </c>
       <c r="C11" s="9"/>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1469,10 +1648,10 @@
       </c>
       <c r="C12" s="9"/>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1484,10 +1663,10 @@
       </c>
       <c r="C13" s="9"/>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1499,10 +1678,10 @@
       </c>
       <c r="C14" s="9"/>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1514,10 +1693,10 @@
       </c>
       <c r="C15" s="9"/>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1529,10 +1708,10 @@
       </c>
       <c r="C16" s="9"/>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1544,10 +1723,10 @@
       </c>
       <c r="C17" s="9"/>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1559,10 +1738,10 @@
       </c>
       <c r="C18" s="9"/>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1574,10 +1753,10 @@
       </c>
       <c r="C19" s="9"/>
       <c r="E19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1660,10 +1839,11 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1699,14 +1879,14 @@
       <c r="B2" s="1">
         <v>1.7943776899999999</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>21</v>
+      <c r="C2" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1718,7 +1898,7 @@
       </c>
       <c r="C3" s="9"/>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -1730,7 +1910,7 @@
       </c>
       <c r="C4" s="9"/>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1742,7 +1922,7 @@
       </c>
       <c r="C5" s="9"/>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1754,7 +1934,7 @@
       </c>
       <c r="C6" s="9"/>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1766,7 +1946,7 @@
       </c>
       <c r="C7" s="9"/>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -1778,7 +1958,7 @@
       </c>
       <c r="C8" s="9"/>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -1790,7 +1970,7 @@
       </c>
       <c r="C9" s="9"/>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1802,7 +1982,7 @@
       </c>
       <c r="C10" s="9"/>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1814,7 +1994,7 @@
       </c>
       <c r="C11" s="9"/>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1832,7 +2012,7 @@
       </c>
       <c r="C12" s="9"/>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1844,7 +2024,7 @@
       </c>
       <c r="C13" s="9"/>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1956,15 +2136,2523 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet13"/>
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.85803733040849051</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>120.51246586367967</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>22.523171235478745</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.84420567696418281</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>133.43427948305305</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>24.846152306292083</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1.380529046587387</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>71.395222114448558</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>25.321698810022085</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1.9876667406545476</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1">
+        <v>334.38294377457805</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1">
+        <v>31.841243460930912</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1">
+        <v>3.4607111212565722</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1">
+        <v>484.54409699041804</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1">
+        <v>55.791914511772852</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2.3098958669540801</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="E17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1">
+        <v>551.03379551986325</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1">
+        <v>72.463774255000416</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="E19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="9"/>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="9"/>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet14"/>
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.73716745529497296</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>93.772321432813087</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>22.645181172669886</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1.328923569984148</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>122.80748069877062</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>21.716161331311302</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1.0207839717938489</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>107.9859450135919</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>15.086582074287714</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3.0959829072954208</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1">
+        <v>228.5903915235254</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1">
+        <v>19.655326035313173</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2.1157714796637248</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1">
+        <v>234.63764178216314</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1">
+        <v>33.348228765196602</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1.3546568842827136</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="E17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1">
+        <v>254.97205010311049</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1">
+        <v>28.710422069918522</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="E19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="9"/>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="9"/>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet15"/>
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.90030156921895166</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>208.67694450885531</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>22.041372479964092</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.97930780579877652</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>260.5395455487627</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>17.894286905241842</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1.2194211376170423</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>230.9543450314624</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>19.132080414363845</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <v>5.8284860311116198</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1">
+        <v>496.452058095545</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1">
+        <v>76.487181087557559</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1">
+        <v>3.6889736940298214</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1">
+        <v>539.94524164003701</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1">
+        <v>77.477101259702152</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1">
+        <v>3.9479855080533079</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="E17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1">
+        <v>501.19816720400183</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1">
+        <v>81.52513439466027</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="E19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="9"/>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="9"/>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet16"/>
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.73989740899816225</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>399.12337836833007</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>115.62153210959032</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.88206998175710627</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>525.37887325246402</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>123.50945419055597</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1.5322352555773908</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>583.31573332519588</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>67.65164844062005</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <v>22.342303535050277</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1">
+        <v>966.69613410631257</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1">
+        <v>289.72318082996753</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1">
+        <v>12.101953762534588</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1148.8712781267682</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1">
+        <v>408.03250333616006</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1">
+        <v>9.3021515251364608</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="E17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1206.994263495247</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1">
+        <v>394.22552480048074</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="E19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="9"/>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="9"/>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet17"/>
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1.0409748707840776</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>98.531723616564022</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>15.146272117480432</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.82003400065019039</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>94.76446169515755</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>17.828298407029227</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1.171461161395053</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>81.365081179551154</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>13.332022570707329</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <v>5.0250412878735879</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1">
+        <v>128.74905874917832</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1">
+        <v>41.394817449714303</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1.9233270030760641</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1">
+        <v>158.14811107523744</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1">
+        <v>64.54403135787085</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2.6901444445172165</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="E17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1">
+        <v>159.53110139677256</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1">
+        <v>49.106421231385895</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="E19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="9"/>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="9"/>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet18"/>
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.6508996057408033</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>80.81334636751221</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>34.130598365816738</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1.1542402850455253</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>122.19897489813989</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>56.178469357534922</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1.3310358829349971</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>128.87459721195054</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>26.117325150144712</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <v>6.7294588348108837</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1">
+        <v>266.24239805448451</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1">
+        <v>93.693977841063855</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1">
+        <v>3.8216169294517437</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1">
+        <v>262.71032757865697</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1">
+        <v>161.58585456872592</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1">
+        <v>3.4607818495430696</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="E17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1">
+        <v>252.63117655409008</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1">
+        <v>85.609546312579909</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="E19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="9"/>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="9"/>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet19"/>
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1.0341354595411136</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>144.51924126058631</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>9.0392742044143866</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.95443334452657502</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>138.71426563734789</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>7.6790476344412975</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1.0131575063850637</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>125.5795146349773</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>8.8684611134148312</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <v>5.4586575162672437</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1">
+        <v>248.39932703483683</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1">
+        <v>25.849697484509367</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2.3744315429285803</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1">
+        <v>241.62445361947516</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1">
+        <v>26.794157889094606</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1">
+        <v>3.5310282606138652</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="E17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1">
+        <v>238.90237920977978</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1">
+        <v>31.517361376721663</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="E19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="9"/>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="9"/>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2150,12 +4838,1803 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet20"/>
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.67834078960201505</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>163.08322078326762</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>39.379522065584908</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.92319077144142625</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>180.25939495579942</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>35.64474266711548</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1.5968370953198903</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>238.45581160133781</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>25.960052517218021</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <v>18.124377633303293</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1">
+        <v>353.89314346619483</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1">
+        <v>72.42966926786643</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1">
+        <v>8.2837729498613406</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1">
+        <v>406.4577071222302</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1">
+        <v>112.82807240192405</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1">
+        <v>6.217234491675133</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="E17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1">
+        <v>434.66894096874745</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1">
+        <v>105.16437045059737</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="E19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="9"/>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="9"/>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet21"/>
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.86131536212475335</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1820.892845504407</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>155.67037089599097</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1.0561287792893073</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1642.2500537927888</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>116.45752333329065</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1.0993119009055483</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1462.7432122818327</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>102.32518724331688</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <v>9.6130369512332212</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1">
+        <v>5973.6881638080595</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1">
+        <v>651.19749047242942</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1">
+        <v>15.57570574791273</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1">
+        <v>7709.4569292699271</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1">
+        <v>769.61628599942037</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1">
+        <v>10.678580099940318</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="E17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1">
+        <v>7408.632917616178</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1">
+        <v>852.28721694861213</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="E19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="9"/>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="9"/>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet22"/>
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.60284126446546538</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1638.241145392092</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>384.40674537748811</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.72570443038166299</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2336.4924743505339</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>397.67725555382464</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2.2857948687897438</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3556.7058135396173</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>313.60934921694604</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <v>18.493886573612095</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1">
+        <v>5632.4489082744649</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1083.887121785514</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1">
+        <v>16.065658604492018</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1">
+        <v>7544.3770636959453</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1822.7808963644843</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1">
+        <v>8.4558513988073987</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="E17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1">
+        <v>7005.3236320330752</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1619.0618194616943</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="E19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="9"/>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="9"/>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet23"/>
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1.0069618749552525</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>21.660356769100733</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3.1155634642108576</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.90845307933872033</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>24.756158948934768</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2.9047538332831913</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1.0931618596937507</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>21.831262803657463</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2.711251006956775</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2.5901467838794812</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1">
+        <v>26.790739801117827</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1">
+        <v>6.478305354874295</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1">
+        <v>3.4009392745954283</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1">
+        <v>31.718477092846605</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1">
+        <v>7.9010795036692967</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2.798375260524419</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="E17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1">
+        <v>36.570906282783412</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1">
+        <v>11.760899958488764</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="E19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="9"/>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="9"/>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet24"/>
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.91281389923704381</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>25.246351721207986</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4.5443420554847993</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.9850258751664509</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>23.415138259465405</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4.6351583537673244</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1.1121672870032646</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>23.664373224248738</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4.0871458386092225</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <v>4.3222574332833723</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1">
+        <v>43.732200940435376</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1">
+        <v>11.199144643928157</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2.6907816924835615</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1">
+        <v>40.714285844171947</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1">
+        <v>13.885292146514573</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2.1157967742542634</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="E17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1">
+        <v>50.577259190999754</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1">
+        <v>12.654002001638887</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="E19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="9"/>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="9"/>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2343,10 +6822,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2579,15 +7059,17 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A17"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2743,15 +7225,17 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2906,15 +7390,17 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3074,15 +7560,17 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3234,15 +7722,17 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3274,7 +7764,7 @@
         <v>6323.2209999999995</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
